--- a/target/classes/output/ReportForRedBlueSicboDice.xlsx
+++ b/target/classes/output/ReportForRedBlueSicboDice.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -332,166 +332,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44933.0</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>0107RA1</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Qualified</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.5048098486403202</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0.17721518987341772</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.1518987341772152</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0.24050632911392406</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0.17721518987341772</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0.2158656420058327</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.43037974683544306</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>0.569620253164557</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>0.4841286396636555</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>0.22784810126582278</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>0.16455696202531644</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>0.13924050632911392</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>0.17721518987341772</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>0.10126582278481013</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>0.189873417721519</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>0.573745467795866</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>0.46835443037974683</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>0.5316455696202531</v>
-      </c>
-      <c r="Y3" s="3" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44933.0</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>0107RA1</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Qualified</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.5048098486403202</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>0.17721518987341772</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0.1518987341772152</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0.24050632911392406</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0.17721518987341772</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0.2158656420058327</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>0.43037974683544306</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0.569620253164557</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0.4841286396636555</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>0.22784810126582278</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>0.16455696202531644</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>0.13924050632911392</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>0.17721518987341772</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>0.10126582278481013</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>0.189873417721519</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>0.573745467795866</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>0.46835443037974683</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>0.5316455696202531</v>
-      </c>
-      <c r="Y4" s="3" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
